--- a/docs/画面項目定義書/mo_snapshot_restore.xlsx
+++ b/docs/画面項目定義書/mo_snapshot_restore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0D7066-63F9-41C3-A99A-677527C63D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEA33D5-4CB7-4D3B-9209-09A97102C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="340" windowWidth="19200" windowHeight="9860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>日本工学院</t>
   </si>
@@ -60,9 +60,6 @@
     <t>復元するスナップショット</t>
   </si>
   <si>
-    <t>起動する仮想マシン名</t>
-  </si>
-  <si>
     <t>復元ボタン</t>
   </si>
   <si>
@@ -82,17 +79,37 @@
   </si>
   <si>
     <t>復元対象のスナップショットを選択する</t>
-  </si>
-  <si>
-    <t>復元先となる仮想マシン名を表示（編集不可）</t>
-  </si>
-  <si>
-    <t>選択されたスナップショットを復元し、仮想マシンを起動</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>mo_snapshot_restore</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>×ボタン（モーダル閉じる）</t>
+  </si>
+  <si>
+    <t>―</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>押下でモーダルを閉じ、スナップショット管理画面へ遷移（キャンセル処理）</t>
+  </si>
+  <si>
+    <t>スナップショットエンティティより</t>
+  </si>
+  <si>
+    <t>復元先仮想マシン名</t>
+  </si>
+  <si>
+    <t>仮想マシンエンティティより</t>
+  </si>
+  <si>
+    <t>復元対象の仮想マシン名を表示（編集不可）</t>
+  </si>
+  <si>
+    <t>押下で選択されたスナップショットを仮想マシンへ復元（ダミー処理）</t>
   </si>
 </sst>
 </file>
@@ -960,7 +977,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
@@ -1026,7 +1043,7 @@
     </row>
     <row r="6" spans="1:7" ht="13.25">
       <c r="A6" s="38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="38"/>
       <c r="C6" s="11"/>
@@ -1072,20 +1089,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="26"/>
       <c r="G9" s="27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.25">
@@ -1093,45 +1110,59 @@
         <v>2</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>16</v>
+      </c>
       <c r="G10" s="34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.25">
       <c r="A11" s="21">
         <v>3</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="32" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>14</v>
+      </c>
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
+      <c r="G12" s="34" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="13.25">
       <c r="A13" s="21">

--- a/docs/画面項目定義書/mo_snapshot_restore.xlsx
+++ b/docs/画面項目定義書/mo_snapshot_restore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEA33D5-4CB7-4D3B-9209-09A97102C2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54DE681-0FE1-4923-AA04-04A89E03221F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="340" windowWidth="19200" windowHeight="9860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="てんぷら" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,8 @@
     <t>復元対象の仮想マシン名を表示（編集不可）</t>
   </si>
   <si>
-    <t>押下で選択されたスナップショットを仮想マシンへ復元（ダミー処理）</t>
+    <t>押下で選択されたスナップショットを仮想マシンへ復元</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -977,20 +978,20 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.76953125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.40625" customWidth="1"/>
-    <col min="5" max="5" width="26.1328125" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.25">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1002,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.25">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1010,7 +1011,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.5">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1019,7 +1020,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.25">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1028,7 +1029,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.25">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1042,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.25">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="38" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +1053,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.25">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1061,7 +1062,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.25">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.5">
+    <row r="9" spans="1:7" ht="24">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.25">
+    <row r="10" spans="1:7" ht="24">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.25">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.5">
+    <row r="12" spans="1:7" ht="13.5">
       <c r="A12" s="28">
         <v>4</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.25">
+    <row r="13" spans="1:7" ht="13.5">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1175,7 +1176,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:7" ht="13.25">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="28">
         <v>6</v>
       </c>
@@ -1186,7 +1187,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
     </row>
-    <row r="15" spans="1:7" ht="13.25">
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1197,7 +1198,7 @@
       <c r="F15" s="33"/>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7" ht="13.25">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="28">
         <v>8</v>
       </c>
@@ -1208,7 +1209,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:7" ht="13.25">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1219,7 +1220,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="13.25">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="28">
         <v>10</v>
       </c>
@@ -1230,7 +1231,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13.25">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1241,7 +1242,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13.25">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -1252,7 +1253,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13.25">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1263,7 +1264,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13.25">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1274,7 +1275,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13.25">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1285,7 +1286,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13.25">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1296,7 +1297,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13.25">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1307,7 +1308,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13.25">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1316,7 +1317,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13.25">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1325,7 +1326,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13.25">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1334,7 +1335,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13.25">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
